--- a/resourse/reflaction.xlsx
+++ b/resourse/reflaction.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\PML _auto\resourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5368E3-79BB-4761-A212-BE09C932EA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD27BD49-F902-4806-9F0D-1E867DD67E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1140" windowWidth="22980" windowHeight="12195" activeTab="3" xr2:uid="{C5EB657E-11B3-40E4-A5D9-D81D34CEC6F4}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="16200" windowHeight="11100" activeTab="4" xr2:uid="{C5EB657E-11B3-40E4-A5D9-D81D34CEC6F4}"/>
   </bookViews>
   <sheets>
     <sheet name="elbow" sheetId="1" r:id="rId1"/>
     <sheet name="tube" sheetId="2" r:id="rId2"/>
     <sheet name="tee" sheetId="3" r:id="rId3"/>
     <sheet name="redu" sheetId="4" r:id="rId4"/>
-    <sheet name="flan" sheetId="5" r:id="rId5"/>
+    <sheet name="gask" sheetId="6" r:id="rId5"/>
+    <sheet name="flan" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="535">
   <si>
     <t>/NJU-SPEC/ELBO-1</t>
   </si>
@@ -1580,6 +1581,69 @@
   </si>
   <si>
     <t>/NJU-SPEC/REDU-156</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-1</t>
+  </si>
+  <si>
+    <t>GASK</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-2</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-3</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-4</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-5</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-6</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-7</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-8</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-9</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-10</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-11</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-12</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-13</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-14</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-15</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-16</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-17</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-18</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-19</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/GASK-20</t>
   </si>
 </sst>
 </file>
@@ -9735,7 +9799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2103B1D7-5869-4875-99B2-89347FE2EFE4}">
   <dimension ref="A1:N156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -13492,6 +13556,442 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF41A6E-C43B-48E0-99D3-5924B41FA9FB}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C1" s="1">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3" s="1">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C4" s="1">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C7" s="1">
+        <v>65</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C8" s="1">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C9" s="1">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C10" s="1">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C11" s="1">
+        <v>150</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C12" s="1">
+        <v>200</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C13" s="1">
+        <v>250</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C14" s="1">
+        <v>300</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C15" s="1">
+        <v>350</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C16" s="1">
+        <v>400</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" s="1">
+        <v>450</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C18" s="1">
+        <v>500</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C19" s="1">
+        <v>550</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C20" s="1">
+        <v>600</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2596A408-01AF-4336-B266-855C710E0BBC}">
   <dimension ref="A1:M28"/>
   <sheetViews>

--- a/resourse/reflaction.xlsx
+++ b/resourse/reflaction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\PML _auto\resourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD27BD49-F902-4806-9F0D-1E867DD67E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F994B9-5598-4130-A967-084484631638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="16200" windowHeight="11100" activeTab="4" xr2:uid="{C5EB657E-11B3-40E4-A5D9-D81D34CEC6F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C5EB657E-11B3-40E4-A5D9-D81D34CEC6F4}"/>
   </bookViews>
   <sheets>
     <sheet name="elbow" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="538">
   <si>
     <t>/NJU-SPEC/ELBO-1</t>
   </si>
@@ -1644,6 +1644,15 @@
   </si>
   <si>
     <t>/NJU-SPEC/GASK-20</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/REDU-CONC-12459(Ia)-DN150X50</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/REDU-CONC-12459(Ia)-DN250X80</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/REDU-CONC-12459(Ia)-DN1000X500</t>
   </si>
 </sst>
 </file>
@@ -9797,10 +9806,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2103B1D7-5869-4875-99B2-89347FE2EFE4}">
-  <dimension ref="A1:N156"/>
+  <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10837,18 +10846,18 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>401</v>
+        <v>535</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C44" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D44" s="1">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -10863,7 +10872,7 @@
     </row>
     <row r="45" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>358</v>
@@ -10872,7 +10881,7 @@
         <v>200</v>
       </c>
       <c r="D45" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -10887,7 +10896,7 @@
     </row>
     <row r="46" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>358</v>
@@ -10896,7 +10905,7 @@
         <v>200</v>
       </c>
       <c r="D46" s="1">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -10911,7 +10920,7 @@
     </row>
     <row r="47" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>358</v>
@@ -10920,7 +10929,7 @@
         <v>200</v>
       </c>
       <c r="D47" s="1">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -10935,16 +10944,16 @@
     </row>
     <row r="48" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C48" s="1">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D48" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -10959,7 +10968,7 @@
     </row>
     <row r="49" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>358</v>
@@ -10968,7 +10977,7 @@
         <v>250</v>
       </c>
       <c r="D49" s="1">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -10983,7 +10992,7 @@
     </row>
     <row r="50" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>358</v>
@@ -10992,7 +11001,7 @@
         <v>250</v>
       </c>
       <c r="D50" s="1">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -11007,7 +11016,7 @@
     </row>
     <row r="51" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>358</v>
@@ -11016,7 +11025,7 @@
         <v>250</v>
       </c>
       <c r="D51" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -11031,16 +11040,16 @@
     </row>
     <row r="52" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C52" s="1">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D52" s="1">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -11053,18 +11062,18 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>410</v>
+        <v>536</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C53" s="1">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D53" s="1">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -11079,7 +11088,7 @@
     </row>
     <row r="54" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>358</v>
@@ -11088,7 +11097,7 @@
         <v>300</v>
       </c>
       <c r="D54" s="1">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -11103,7 +11112,7 @@
     </row>
     <row r="55" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>358</v>
@@ -11112,7 +11121,7 @@
         <v>300</v>
       </c>
       <c r="D55" s="1">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -11127,16 +11136,16 @@
     </row>
     <row r="56" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C56" s="1">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D56" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -11151,16 +11160,16 @@
     </row>
     <row r="57" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C57" s="1">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D57" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -11175,7 +11184,7 @@
     </row>
     <row r="58" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>358</v>
@@ -11184,7 +11193,7 @@
         <v>350</v>
       </c>
       <c r="D58" s="1">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -11199,7 +11208,7 @@
     </row>
     <row r="59" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>358</v>
@@ -11208,7 +11217,7 @@
         <v>350</v>
       </c>
       <c r="D59" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -11223,16 +11232,16 @@
     </row>
     <row r="60" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C60" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="D60" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -11247,16 +11256,16 @@
     </row>
     <row r="61" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C61" s="1">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="D61" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -11271,7 +11280,7 @@
     </row>
     <row r="62" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>358</v>
@@ -11280,7 +11289,7 @@
         <v>400</v>
       </c>
       <c r="D62" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -11295,7 +11304,7 @@
     </row>
     <row r="63" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>358</v>
@@ -11304,7 +11313,7 @@
         <v>400</v>
       </c>
       <c r="D63" s="1">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -11319,16 +11328,16 @@
     </row>
     <row r="64" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C64" s="1">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="D64" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -11343,16 +11352,16 @@
     </row>
     <row r="65" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C65" s="1">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="D65" s="1">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -11367,7 +11376,7 @@
     </row>
     <row r="66" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>358</v>
@@ -11376,7 +11385,7 @@
         <v>450</v>
       </c>
       <c r="D66" s="1">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -11391,7 +11400,7 @@
     </row>
     <row r="67" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>358</v>
@@ -11400,7 +11409,7 @@
         <v>450</v>
       </c>
       <c r="D67" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -11415,16 +11424,16 @@
     </row>
     <row r="68" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C68" s="1">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="D68" s="1">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -11439,16 +11448,16 @@
     </row>
     <row r="69" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C69" s="1">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="D69" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -11463,7 +11472,7 @@
     </row>
     <row r="70" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>358</v>
@@ -11472,7 +11481,7 @@
         <v>500</v>
       </c>
       <c r="D70" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -11487,7 +11496,7 @@
     </row>
     <row r="71" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>358</v>
@@ -11496,7 +11505,7 @@
         <v>500</v>
       </c>
       <c r="D71" s="1">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -11511,16 +11520,16 @@
     </row>
     <row r="72" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C72" s="1">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="D72" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -11535,16 +11544,16 @@
     </row>
     <row r="73" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C73" s="1">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="D73" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -11559,7 +11568,7 @@
     </row>
     <row r="74" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>358</v>
@@ -11568,7 +11577,7 @@
         <v>550</v>
       </c>
       <c r="D74" s="1">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -11583,7 +11592,7 @@
     </row>
     <row r="75" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>358</v>
@@ -11592,7 +11601,7 @@
         <v>550</v>
       </c>
       <c r="D75" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -11607,16 +11616,16 @@
     </row>
     <row r="76" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C76" s="1">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="D76" s="1">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -11631,16 +11640,16 @@
     </row>
     <row r="77" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C77" s="1">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="D77" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -11655,7 +11664,7 @@
     </row>
     <row r="78" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>358</v>
@@ -11664,7 +11673,7 @@
         <v>600</v>
       </c>
       <c r="D78" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -11679,7 +11688,7 @@
     </row>
     <row r="79" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>358</v>
@@ -11688,7 +11697,7 @@
         <v>600</v>
       </c>
       <c r="D79" s="1">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -11703,16 +11712,16 @@
     </row>
     <row r="80" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C80" s="1">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="D80" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -11727,16 +11736,16 @@
     </row>
     <row r="81" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C81" s="1">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="D81" s="1">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -11751,7 +11760,7 @@
     </row>
     <row r="82" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>358</v>
@@ -11760,7 +11769,7 @@
         <v>650</v>
       </c>
       <c r="D82" s="1">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -11775,7 +11784,7 @@
     </row>
     <row r="83" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>358</v>
@@ -11784,7 +11793,7 @@
         <v>650</v>
       </c>
       <c r="D83" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -11799,16 +11808,16 @@
     </row>
     <row r="84" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C84" s="1">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="D84" s="1">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -11823,16 +11832,16 @@
     </row>
     <row r="85" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C85" s="1">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="D85" s="1">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -11847,7 +11856,7 @@
     </row>
     <row r="86" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>358</v>
@@ -11856,7 +11865,7 @@
         <v>700</v>
       </c>
       <c r="D86" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -11871,7 +11880,7 @@
     </row>
     <row r="87" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>358</v>
@@ -11880,7 +11889,7 @@
         <v>700</v>
       </c>
       <c r="D87" s="1">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -11895,16 +11904,16 @@
     </row>
     <row r="88" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C88" s="1">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="D88" s="1">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -11919,16 +11928,16 @@
     </row>
     <row r="89" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C89" s="1">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="D89" s="1">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -11943,7 +11952,7 @@
     </row>
     <row r="90" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>358</v>
@@ -11952,7 +11961,7 @@
         <v>750</v>
       </c>
       <c r="D90" s="1">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -11967,7 +11976,7 @@
     </row>
     <row r="91" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>358</v>
@@ -11976,7 +11985,7 @@
         <v>750</v>
       </c>
       <c r="D91" s="1">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -11991,16 +12000,16 @@
     </row>
     <row r="92" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C92" s="1">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="D92" s="1">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -12015,16 +12024,16 @@
     </row>
     <row r="93" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C93" s="1">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="D93" s="1">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -12039,7 +12048,7 @@
     </row>
     <row r="94" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>358</v>
@@ -12048,7 +12057,7 @@
         <v>800</v>
       </c>
       <c r="D94" s="1">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -12063,7 +12072,7 @@
     </row>
     <row r="95" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>358</v>
@@ -12072,7 +12081,7 @@
         <v>800</v>
       </c>
       <c r="D95" s="1">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -12087,16 +12096,16 @@
     </row>
     <row r="96" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C96" s="1">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="D96" s="1">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -12111,16 +12120,16 @@
     </row>
     <row r="97" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C97" s="1">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="D97" s="1">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -12135,7 +12144,7 @@
     </row>
     <row r="98" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>358</v>
@@ -12144,7 +12153,7 @@
         <v>850</v>
       </c>
       <c r="D98" s="1">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -12159,7 +12168,7 @@
     </row>
     <row r="99" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>358</v>
@@ -12168,7 +12177,7 @@
         <v>850</v>
       </c>
       <c r="D99" s="1">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -12183,16 +12192,16 @@
     </row>
     <row r="100" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C100" s="1">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="D100" s="1">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -12207,16 +12216,16 @@
     </row>
     <row r="101" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C101" s="1">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="D101" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -12231,7 +12240,7 @@
     </row>
     <row r="102" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>358</v>
@@ -12240,7 +12249,7 @@
         <v>900</v>
       </c>
       <c r="D102" s="1">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -12255,7 +12264,7 @@
     </row>
     <row r="103" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>358</v>
@@ -12264,7 +12273,7 @@
         <v>900</v>
       </c>
       <c r="D103" s="1">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -12279,7 +12288,7 @@
     </row>
     <row r="104" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>358</v>
@@ -12288,7 +12297,7 @@
         <v>900</v>
       </c>
       <c r="D104" s="1">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -12303,16 +12312,16 @@
     </row>
     <row r="105" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C105" s="1">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="D105" s="1">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -12327,16 +12336,16 @@
     </row>
     <row r="106" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C106" s="1">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="D106" s="1">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -12351,7 +12360,7 @@
     </row>
     <row r="107" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>358</v>
@@ -12360,7 +12369,7 @@
         <v>950</v>
       </c>
       <c r="D107" s="1">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -12375,7 +12384,7 @@
     </row>
     <row r="108" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>358</v>
@@ -12384,7 +12393,7 @@
         <v>950</v>
       </c>
       <c r="D108" s="1">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -12399,7 +12408,7 @@
     </row>
     <row r="109" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>358</v>
@@ -12408,7 +12417,7 @@
         <v>950</v>
       </c>
       <c r="D109" s="1">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -12423,7 +12432,7 @@
     </row>
     <row r="110" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>358</v>
@@ -12432,7 +12441,7 @@
         <v>950</v>
       </c>
       <c r="D110" s="1">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -12447,16 +12456,16 @@
     </row>
     <row r="111" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C111" s="1">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="D111" s="1">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -12471,16 +12480,16 @@
     </row>
     <row r="112" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C112" s="1">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="D112" s="1">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -12495,7 +12504,7 @@
     </row>
     <row r="113" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>358</v>
@@ -12504,7 +12513,7 @@
         <v>1000</v>
       </c>
       <c r="D113" s="1">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -12519,7 +12528,7 @@
     </row>
     <row r="114" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>358</v>
@@ -12528,7 +12537,7 @@
         <v>1000</v>
       </c>
       <c r="D114" s="1">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -12543,7 +12552,7 @@
     </row>
     <row r="115" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>358</v>
@@ -12552,7 +12561,7 @@
         <v>1000</v>
       </c>
       <c r="D115" s="1">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -12567,16 +12576,16 @@
     </row>
     <row r="116" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C116" s="1">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="D116" s="1">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -12591,16 +12600,16 @@
     </row>
     <row r="117" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C117" s="1">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="D117" s="1">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -12613,18 +12622,18 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C118" s="1">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="D118" s="1">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -12639,7 +12648,7 @@
     </row>
     <row r="119" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>358</v>
@@ -12648,7 +12657,7 @@
         <v>1050</v>
       </c>
       <c r="D119" s="1">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -12663,7 +12672,7 @@
     </row>
     <row r="120" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>358</v>
@@ -12672,7 +12681,7 @@
         <v>1050</v>
       </c>
       <c r="D120" s="1">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -12687,7 +12696,7 @@
     </row>
     <row r="121" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>358</v>
@@ -12696,7 +12705,7 @@
         <v>1050</v>
       </c>
       <c r="D121" s="1">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -12711,13 +12720,13 @@
     </row>
     <row r="122" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C122" s="1">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="D122" s="1">
         <v>900</v>
@@ -12735,13 +12744,13 @@
     </row>
     <row r="123" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C123" s="1">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="D123" s="1">
         <v>950</v>
@@ -12759,13 +12768,13 @@
     </row>
     <row r="124" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C124" s="1">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="D124" s="1">
         <v>1000</v>
@@ -12783,7 +12792,7 @@
     </row>
     <row r="125" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>358</v>
@@ -12792,7 +12801,7 @@
         <v>1100</v>
       </c>
       <c r="D125" s="1">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -12807,13 +12816,13 @@
     </row>
     <row r="126" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C126" s="1">
-        <v>1150</v>
+        <v>1100</v>
       </c>
       <c r="D126" s="1">
         <v>950</v>
@@ -12831,13 +12840,13 @@
     </row>
     <row r="127" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C127" s="1">
-        <v>1150</v>
+        <v>1100</v>
       </c>
       <c r="D127" s="1">
         <v>1000</v>
@@ -12855,13 +12864,13 @@
     </row>
     <row r="128" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C128" s="1">
-        <v>1150</v>
+        <v>1100</v>
       </c>
       <c r="D128" s="1">
         <v>1050</v>
@@ -12879,7 +12888,7 @@
     </row>
     <row r="129" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>358</v>
@@ -12888,7 +12897,7 @@
         <v>1150</v>
       </c>
       <c r="D129" s="1">
-        <v>1100</v>
+        <v>950</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -12903,13 +12912,13 @@
     </row>
     <row r="130" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C130" s="1">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="D130" s="1">
         <v>1000</v>
@@ -12927,13 +12936,13 @@
     </row>
     <row r="131" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C131" s="1">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="D131" s="1">
         <v>1050</v>
@@ -12951,13 +12960,13 @@
     </row>
     <row r="132" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C132" s="1">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="D132" s="1">
         <v>1100</v>
@@ -12975,7 +12984,7 @@
     </row>
     <row r="133" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>358</v>
@@ -12984,7 +12993,7 @@
         <v>1200</v>
       </c>
       <c r="D133" s="1">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -12999,16 +13008,16 @@
     </row>
     <row r="134" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C134" s="1">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D134" s="1">
-        <v>600</v>
+        <v>1050</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -13023,16 +13032,16 @@
     </row>
     <row r="135" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C135" s="1">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D135" s="1">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -13047,16 +13056,16 @@
     </row>
     <row r="136" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C136" s="1">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D136" s="1">
-        <v>900</v>
+        <v>1150</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -13071,7 +13080,7 @@
     </row>
     <row r="137" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>358</v>
@@ -13080,7 +13089,7 @@
         <v>1300</v>
       </c>
       <c r="D137" s="1">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -13095,7 +13104,7 @@
     </row>
     <row r="138" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>358</v>
@@ -13104,7 +13113,7 @@
         <v>1300</v>
       </c>
       <c r="D138" s="1">
-        <v>1050</v>
+        <v>750</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -13119,7 +13128,7 @@
     </row>
     <row r="139" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>358</v>
@@ -13128,7 +13137,7 @@
         <v>1300</v>
       </c>
       <c r="D139" s="1">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -13143,7 +13152,7 @@
     </row>
     <row r="140" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>358</v>
@@ -13152,7 +13161,7 @@
         <v>1300</v>
       </c>
       <c r="D140" s="1">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -13167,16 +13176,16 @@
     </row>
     <row r="141" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C141" s="1">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D141" s="1">
-        <v>600</v>
+        <v>1050</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -13191,16 +13200,16 @@
     </row>
     <row r="142" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C142" s="1">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D142" s="1">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -13215,16 +13224,16 @@
     </row>
     <row r="143" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C143" s="1">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D143" s="1">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -13239,7 +13248,7 @@
     </row>
     <row r="144" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>358</v>
@@ -13248,7 +13257,7 @@
         <v>1400</v>
       </c>
       <c r="D144" s="1">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -13263,7 +13272,7 @@
     </row>
     <row r="145" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>358</v>
@@ -13272,7 +13281,7 @@
         <v>1400</v>
       </c>
       <c r="D145" s="1">
-        <v>1050</v>
+        <v>750</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -13287,7 +13296,7 @@
     </row>
     <row r="146" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>358</v>
@@ -13296,7 +13305,7 @@
         <v>1400</v>
       </c>
       <c r="D146" s="1">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -13311,7 +13320,7 @@
     </row>
     <row r="147" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>358</v>
@@ -13320,7 +13329,7 @@
         <v>1400</v>
       </c>
       <c r="D147" s="1">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -13335,7 +13344,7 @@
     </row>
     <row r="148" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>358</v>
@@ -13344,7 +13353,7 @@
         <v>1400</v>
       </c>
       <c r="D148" s="1">
-        <v>1300</v>
+        <v>1050</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -13359,16 +13368,16 @@
     </row>
     <row r="149" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C149" s="1">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="D149" s="1">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -13383,16 +13392,16 @@
     </row>
     <row r="150" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C150" s="1">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="D150" s="1">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -13407,16 +13416,16 @@
     </row>
     <row r="151" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C151" s="1">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="D151" s="1">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -13431,7 +13440,7 @@
     </row>
     <row r="152" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>358</v>
@@ -13440,7 +13449,7 @@
         <v>1500</v>
       </c>
       <c r="D152" s="1">
-        <v>1050</v>
+        <v>750</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -13455,7 +13464,7 @@
     </row>
     <row r="153" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>358</v>
@@ -13464,7 +13473,7 @@
         <v>1500</v>
       </c>
       <c r="D153" s="1">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -13479,7 +13488,7 @@
     </row>
     <row r="154" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>358</v>
@@ -13488,7 +13497,7 @@
         <v>1500</v>
       </c>
       <c r="D154" s="1">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -13503,7 +13512,7 @@
     </row>
     <row r="155" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>358</v>
@@ -13512,7 +13521,7 @@
         <v>1500</v>
       </c>
       <c r="D155" s="1">
-        <v>1300</v>
+        <v>1050</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -13527,7 +13536,7 @@
     </row>
     <row r="156" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>358</v>
@@ -13536,7 +13545,7 @@
         <v>1500</v>
       </c>
       <c r="D156" s="1">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -13549,6 +13558,78 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
+    <row r="157" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+    </row>
+    <row r="158" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C158" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D158" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+    </row>
+    <row r="159" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C159" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D159" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13559,7 +13640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF41A6E-C43B-48E0-99D3-5924B41FA9FB}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/resourse/reflaction.xlsx
+++ b/resourse/reflaction.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\PML _auto\resourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F994B9-5598-4130-A967-084484631638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D93C9CC-D70A-4B97-8948-53704622C79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C5EB657E-11B3-40E4-A5D9-D81D34CEC6F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{C5EB657E-11B3-40E4-A5D9-D81D34CEC6F4}"/>
   </bookViews>
   <sheets>
     <sheet name="elbow" sheetId="1" r:id="rId1"/>
-    <sheet name="tube" sheetId="2" r:id="rId2"/>
-    <sheet name="tee" sheetId="3" r:id="rId3"/>
-    <sheet name="redu" sheetId="4" r:id="rId4"/>
-    <sheet name="gask" sheetId="6" r:id="rId5"/>
-    <sheet name="flan" sheetId="5" r:id="rId6"/>
+    <sheet name="valv" sheetId="7" r:id="rId2"/>
+    <sheet name="tube" sheetId="2" r:id="rId3"/>
+    <sheet name="tee" sheetId="3" r:id="rId4"/>
+    <sheet name="redu" sheetId="4" r:id="rId5"/>
+    <sheet name="gask" sheetId="6" r:id="rId6"/>
+    <sheet name="flan" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="567">
   <si>
     <t>/NJU-SPEC/ELBO-1</t>
   </si>
@@ -1653,6 +1654,93 @@
   </si>
   <si>
     <t>/NJU-SPEC/REDU-CONC-12459(Ia)-DN1000X500</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-2</t>
+  </si>
+  <si>
+    <t>VALV</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-3</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-4</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-5</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-6</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-7</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-8</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-9</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-10</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-11</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-12</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-13</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-14</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-15</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-16</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-17</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-18</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-20</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-22</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-24</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-1</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-19</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-21</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-23</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-25</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-26</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-27</t>
+  </si>
+  <si>
+    <t>/NJU-SPEC/VALV-28</t>
   </si>
 </sst>
 </file>
@@ -3389,6 +3477,610 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388E9A8A-F962-4007-8D44-AF6ABF505955}">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2" s="1">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C3" s="1">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C5" s="1">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C6" s="1">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C7" s="1">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C9" s="1">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C10" s="1">
+        <v>150</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C11" s="1">
+        <v>200</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C12" s="1">
+        <v>250</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C13" s="1">
+        <v>300</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C14" s="1">
+        <v>350</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C15" s="1">
+        <v>400</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C16" s="1">
+        <v>450</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C17" s="1">
+        <v>500</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C18" s="1">
+        <v>600</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C19" s="1">
+        <v>700</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C20" s="1">
+        <v>800</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C22" s="1">
+        <v>550</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C23" s="1">
+        <v>650</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C24" s="1">
+        <v>750</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C25" s="1">
+        <v>850</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C26" s="1">
+        <v>900</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C27" s="1">
+        <v>950</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779DD60A-23B4-4AD1-BD6F-8CC0E90ABA27}">
   <dimension ref="A1:L42"/>
   <sheetViews>
@@ -4244,7 +4936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8002631C-64D4-4150-97BF-592E801A5C34}">
   <dimension ref="A1:N231"/>
   <sheetViews>
@@ -9804,12 +10496,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2103B1D7-5869-4875-99B2-89347FE2EFE4}">
   <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13636,7 +14328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF41A6E-C43B-48E0-99D3-5924B41FA9FB}">
   <dimension ref="A1:M20"/>
   <sheetViews>
@@ -14072,7 +14764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2596A408-01AF-4336-B266-855C710E0BBC}">
   <dimension ref="A1:M28"/>
   <sheetViews>
